--- a/Assets/Spreadsheets/Price chart.xlsx
+++ b/Assets/Spreadsheets/Price chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanha\Unity Projects\Games\FishingMania\Assets\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EB25D0-096A-4BFB-AA7C-163F50D3CE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6A1939-75AA-4D5C-9C25-5A2A68C3D072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3195" windowWidth="21600" windowHeight="13185" xr2:uid="{CCAC18E9-00B2-47EF-B1B7-0B110541D6CC}"/>
+    <workbookView xWindow="5130" yWindow="5505" windowWidth="21600" windowHeight="13185" xr2:uid="{CCAC18E9-00B2-47EF-B1B7-0B110541D6CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -89,9 +87,6 @@
     <t>Base Value</t>
   </si>
   <si>
-    <t>Scallion</t>
-  </si>
-  <si>
     <t>Dishes</t>
   </si>
   <si>
@@ -144,6 +139,9 @@
   </si>
   <si>
     <t>Bounty Value</t>
+  </si>
+  <si>
+    <t>Spring Onion</t>
   </si>
 </sst>
 </file>
@@ -498,7 +496,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,22 +528,22 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -566,7 +564,7 @@
         <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
@@ -576,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <f>E2*2</f>
+        <f t="shared" ref="K2:K8" si="0">E2*2</f>
         <v>40</v>
       </c>
       <c r="L2">
@@ -598,25 +596,25 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F8" si="0">E3*3</f>
+        <f t="shared" ref="F3:F8" si="1">E3*3</f>
         <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <f>B5+B2+B3</f>
         <v>15</v>
       </c>
       <c r="K3">
-        <f>E3*2</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L8" si="1">K3-J3</f>
+        <f t="shared" ref="L3:L8" si="2">K3-J3</f>
         <v>65</v>
       </c>
     </row>
@@ -634,25 +632,25 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <f>B5+B2+B4</f>
         <v>10</v>
       </c>
       <c r="K4">
-        <f>E4*2</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
@@ -670,25 +668,25 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <f>B4+B8+B7</f>
         <v>14</v>
       </c>
       <c r="K5">
-        <f>E5*2</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
     </row>
@@ -706,31 +704,31 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6">
         <f>B4+B8+B5</f>
         <v>15</v>
       </c>
       <c r="K6">
-        <f>E6*2</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -742,25 +740,25 @@
         <v>30</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <f>B8+B4+B6</f>
         <v>13</v>
       </c>
       <c r="K7">
-        <f>E7*2</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
@@ -778,25 +776,25 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8">
         <f>B5+B3+B2</f>
         <v>15</v>
       </c>
       <c r="K8">
-        <f>E8*2</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
     </row>
